--- a/Team-Data/2008-09/3-28-2008-09.xlsx
+++ b/Team-Data/2008-09/3-28-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>1.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
@@ -774,19 +841,19 @@
         <v>7</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
         <v>24</v>
       </c>
       <c r="AP2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS2" t="n">
         <v>20</v>
@@ -795,16 +862,16 @@
         <v>21</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>4</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY2" t="n">
         <v>5</v>
@@ -813,10 +880,10 @@
         <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
         <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>0.74</v>
+        <v>0.743</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="O3" t="n">
         <v>19.7</v>
       </c>
       <c r="P3" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
       </c>
       <c r="S3" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.5</v>
+        <v>42.4</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -908,25 +975,25 @@
         <v>7.6</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.9</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>4</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -962,13 +1029,13 @@
         <v>11</v>
       </c>
       <c r="AP3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
@@ -986,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.452</v>
+        <v>0.444</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J4" t="n">
         <v>76.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
@@ -1060,10 +1127,10 @@
         <v>16.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
         <v>23.9</v>
@@ -1072,19 +1139,19 @@
         <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="U4" t="n">
         <v>21.2</v>
       </c>
       <c r="V4" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W4" t="n">
         <v>7.1</v>
@@ -1096,19 +1163,19 @@
         <v>5.9</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,16 +1196,16 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM4" t="n">
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO4" t="n">
         <v>25</v>
@@ -1147,19 +1214,19 @@
         <v>19</v>
       </c>
       <c r="AQ4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
         <v>26</v>
@@ -1177,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -1227,10 +1294,10 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.9</v>
+        <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.454</v>
@@ -1242,55 +1309,55 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.382</v>
+        <v>0.381</v>
       </c>
       <c r="O5" t="n">
-        <v>19.6</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
         <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T5" t="n">
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1299,10 +1366,10 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1314,28 +1381,28 @@
         <v>19</v>
       </c>
       <c r="AL5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM5" t="n">
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1344,13 +1411,13 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW5" t="n">
         <v>12</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,14 +1426,14 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC5" t="n">
         <v>16</v>
       </c>
-      <c r="BB5" t="n">
-        <v>10</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>17</v>
-      </c>
       <c r="BD5" t="n">
         <v>10</v>
       </c>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
         <v>59</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.831</v>
+        <v>0.819</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L6" t="n">
         <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.392</v>
+        <v>0.39</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R6" t="n">
         <v>10.7</v>
@@ -1445,10 +1512,10 @@
         <v>41.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1487,10 +1554,10 @@
         <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,10 +1569,10 @@
         <v>5</v>
       </c>
       <c r="AN6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1514,25 +1581,25 @@
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
       </c>
       <c r="AT6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>23</v>
       </c>
       <c r="AV6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1541,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1678,16 +1745,16 @@
         <v>11</v>
       </c>
       <c r="AL7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7" t="n">
         <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP7" t="n">
         <v>28</v>
@@ -1699,16 +1766,16 @@
         <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>6</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1717,7 +1784,7 @@
         <v>8</v>
       </c>
       <c r="AY7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ7" t="n">
         <v>4</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8" t="n">
         <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.649</v>
+        <v>0.644</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>79.3</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.468</v>
+        <v>0.467</v>
       </c>
       <c r="L8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M8" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
@@ -1797,49 +1864,49 @@
         <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R8" t="n">
         <v>11.2</v>
       </c>
       <c r="S8" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T8" t="n">
         <v>41.5</v>
       </c>
       <c r="U8" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V8" t="n">
         <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
         <v>5.9</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>103.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1875,19 +1942,19 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT8" t="n">
         <v>15</v>
       </c>
       <c r="AU8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1896,19 +1963,19 @@
         <v>3</v>
       </c>
       <c r="AX8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" t="n">
         <v>37</v>
       </c>
       <c r="G9" t="n">
-        <v>0.486</v>
+        <v>0.479</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
@@ -1964,13 +2031,13 @@
         <v>0.454</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M9" t="n">
         <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="O9" t="n">
         <v>16.8</v>
@@ -1979,7 +2046,7 @@
         <v>22.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R9" t="n">
         <v>11.5</v>
@@ -1988,10 +2055,10 @@
         <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V9" t="n">
         <v>11.9</v>
@@ -2000,7 +2067,7 @@
         <v>6.2</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
         <v>4.2</v>
@@ -2018,19 +2085,19 @@
         <v>-0.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2048,7 +2115,7 @@
         <v>29</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>29</v>
@@ -2063,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>18</v>
@@ -2075,25 +2142,25 @@
         <v>2</v>
       </c>
       <c r="AW9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
       </c>
       <c r="BA9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
       </c>
       <c r="BC9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -2122,55 +2189,55 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O10" t="n">
         <v>23</v>
       </c>
       <c r="P10" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R10" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S10" t="n">
         <v>30.3</v>
       </c>
       <c r="T10" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
@@ -2185,22 +2252,22 @@
         <v>6.4</v>
       </c>
       <c r="Y10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z10" t="n">
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2224,7 +2291,7 @@
         <v>12</v>
       </c>
       <c r="AL10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM10" t="n">
         <v>17</v>
@@ -2239,22 +2306,22 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -2304,52 +2371,52 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" t="n">
         <v>26</v>
       </c>
       <c r="G11" t="n">
-        <v>0.649</v>
+        <v>0.644</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L11" t="n">
         <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N11" t="n">
         <v>0.375</v>
       </c>
       <c r="O11" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P11" t="n">
         <v>23.6</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
         <v>42.9</v>
@@ -2376,16 +2443,16 @@
         <v>20.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2394,10 +2461,10 @@
         <v>6</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>21</v>
@@ -2415,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2436,22 +2503,22 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
       </c>
       <c r="AX11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
         <v>30</v>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.411</v>
+        <v>0.417</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J12" t="n">
-        <v>86.09999999999999</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.45</v>
@@ -2519,10 +2586,10 @@
         <v>0.375</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q12" t="n">
         <v>0.805</v>
@@ -2540,43 +2607,43 @@
         <v>21.7</v>
       </c>
       <c r="V12" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
       </c>
       <c r="X12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
         <v>103.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2597,16 +2664,16 @@
         <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP12" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>4</v>
@@ -2618,25 +2685,25 @@
         <v>7</v>
       </c>
       <c r="AV12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
         <v>18</v>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" t="n">
-        <v>0.243</v>
+        <v>0.247</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2689,16 +2756,16 @@
         <v>81.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M13" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O13" t="n">
         <v>17</v>
@@ -2707,22 +2774,22 @@
         <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R13" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S13" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="T13" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,7 +2798,7 @@
         <v>5.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z13" t="n">
         <v>20.2</v>
@@ -2740,13 +2807,13 @@
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2782,31 +2849,31 @@
         <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR13" t="n">
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW13" t="n">
         <v>24</v>
       </c>
       <c r="AX13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY13" t="n">
         <v>21</v>
@@ -2821,7 +2888,7 @@
         <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.803</v>
+        <v>0.806</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="J14" t="n">
-        <v>85.3</v>
+        <v>85.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,16 +2944,16 @@
         <v>6.8</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q14" t="n">
         <v>0.769</v>
@@ -2895,10 +2962,10 @@
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U14" t="n">
         <v>23.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.1</v>
+        <v>107.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2952,28 +3019,28 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX14" t="n">
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I15" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J15" t="n">
-        <v>77.3</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="K15" t="n">
         <v>0.45</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N15" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
         <v>10.5</v>
       </c>
       <c r="S15" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="T15" t="n">
-        <v>38.7</v>
+        <v>38.9</v>
       </c>
       <c r="U15" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="V15" t="n">
         <v>15.1</v>
@@ -3104,19 +3171,19 @@
         <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.4</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>27</v>
@@ -3131,7 +3198,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
@@ -3140,10 +3207,10 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>12</v>
@@ -3152,7 +3219,7 @@
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
         <v>29</v>
@@ -3167,7 +3234,7 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -3214,25 +3281,25 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" t="n">
         <v>34</v>
       </c>
       <c r="G16" t="n">
-        <v>0.534</v>
+        <v>0.528</v>
       </c>
       <c r="H16" t="n">
         <v>48.6</v>
       </c>
       <c r="I16" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J16" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
@@ -3244,25 +3311,25 @@
         <v>19.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O16" t="n">
         <v>17.4</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R16" t="n">
         <v>10.2</v>
       </c>
       <c r="S16" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3283,16 +3350,16 @@
         <v>20.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.2</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3310,40 +3377,40 @@
         <v>12</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK16" t="n">
         <v>17</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM16" t="n">
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR16" t="n">
         <v>25</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
       </c>
       <c r="AU16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV16" t="n">
         <v>3</v>
@@ -3352,10 +3419,10 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ16" t="n">
         <v>16</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -3411,28 +3478,28 @@
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.442</v>
+        <v>0.444</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M17" t="n">
         <v>16.8</v>
       </c>
       <c r="N17" t="n">
-        <v>0.36</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0.782</v>
@@ -3441,16 +3508,16 @@
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
         <v>21.4</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W17" t="n">
         <v>7.3</v>
@@ -3462,19 +3529,19 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
         <v>-1.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
@@ -3489,7 +3556,7 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ17" t="n">
         <v>8</v>
@@ -3504,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="AN17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AO17" t="n">
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,25 +3586,25 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-5</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3668,10 +3735,10 @@
         <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3686,31 +3753,31 @@
         <v>15</v>
       </c>
       <c r="AN18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP18" t="n">
         <v>17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS18" t="n">
         <v>19</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU18" t="n">
         <v>22</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
@@ -3853,7 +3920,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>18</v>
@@ -3862,16 +3929,16 @@
         <v>23</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AP19" t="n">
         <v>18</v>
@@ -3886,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3895,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG20" t="n">
         <v>9</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>10</v>
@@ -4050,10 +4117,10 @@
         <v>13</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -4124,31 +4191,31 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
         <v>29</v>
       </c>
       <c r="F21" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21" t="n">
-        <v>0.397</v>
+        <v>0.403</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="M21" t="n">
         <v>28.4</v>
@@ -4157,22 +4224,22 @@
         <v>0.361</v>
       </c>
       <c r="O21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P21" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q21" t="n">
         <v>0.788</v>
       </c>
       <c r="R21" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S21" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T21" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U21" t="n">
         <v>21.2</v>
@@ -4184,7 +4251,7 @@
         <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y21" t="n">
         <v>5.3</v>
@@ -4193,16 +4260,16 @@
         <v>20.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.6</v>
+        <v>105.9</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>22</v>
@@ -4214,7 +4281,7 @@
         <v>22</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4226,16 +4293,16 @@
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM21" t="n">
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
         <v>21</v>
@@ -4253,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="AU21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>-5.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4396,7 +4463,7 @@
         <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
@@ -4423,13 +4490,13 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT22" t="n">
         <v>5</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4453,7 +4520,7 @@
         <v>11</v>
       </c>
       <c r="BA22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -4566,10 +4633,10 @@
         <v>7.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF23" t="n">
         <v>3</v>
@@ -4578,13 +4645,13 @@
         <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>25</v>
       </c>
       <c r="AJ23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4620,13 +4687,13 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW23" t="n">
         <v>20</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4760,10 +4827,10 @@
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ24" t="n">
         <v>17</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
         <v>6</v>
@@ -4793,13 +4860,13 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -4852,55 +4919,55 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
         <v>40</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.548</v>
+        <v>0.556</v>
       </c>
       <c r="H25" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I25" t="n">
         <v>41</v>
       </c>
       <c r="J25" t="n">
-        <v>81.3</v>
+        <v>81</v>
       </c>
       <c r="K25" t="n">
-        <v>0.504</v>
+        <v>0.507</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
       </c>
       <c r="M25" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.384</v>
       </c>
       <c r="O25" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.753</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>31</v>
+        <v>30.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>23.1</v>
@@ -4909,7 +4976,7 @@
         <v>15.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
         <v>5.1</v>
@@ -4918,19 +4985,19 @@
         <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
         <v>22.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>108.9</v>
+        <v>109</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,13 +5009,13 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
         <v>5</v>
@@ -4972,13 +5039,13 @@
         <v>24</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX25" t="n">
         <v>12</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -5037,52 +5104,52 @@
         <v>72</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.639</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5091,13 +5158,13 @@
         <v>12.8</v>
       </c>
       <c r="W26" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X26" t="n">
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z26" t="n">
         <v>20.6</v>
@@ -5106,19 +5173,19 @@
         <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
@@ -5142,16 +5209,16 @@
         <v>11</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,10 +5227,10 @@
         <v>28</v>
       </c>
       <c r="AT26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
@@ -5187,7 +5254,7 @@
         <v>14</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-8.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG27" t="n">
         <v>30</v>
@@ -5324,7 +5391,7 @@
         <v>12</v>
       </c>
       <c r="AN27" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5369,7 +5436,7 @@
         <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5488,7 +5555,7 @@
         <v>5</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>10</v>
@@ -5506,7 +5573,7 @@
         <v>9</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5524,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="AT28" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>23</v>
@@ -5670,10 +5737,10 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>16</v>
@@ -5691,7 +5758,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5709,7 +5776,7 @@
         <v>22</v>
       </c>
       <c r="AU29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -5762,19 +5829,19 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E30" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="n">
         <v>27</v>
       </c>
       <c r="G30" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="H30" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I30" t="n">
         <v>38.5</v>
@@ -5789,16 +5856,16 @@
         <v>4.8</v>
       </c>
       <c r="M30" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N30" t="n">
         <v>0.347</v>
       </c>
       <c r="O30" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P30" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="Q30" t="n">
         <v>0.77</v>
@@ -5807,16 +5874,16 @@
         <v>11.6</v>
       </c>
       <c r="S30" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="T30" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U30" t="n">
         <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>8.699999999999999</v>
@@ -5831,28 +5898,28 @@
         <v>22.1</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB30" t="n">
         <v>103.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
       </c>
       <c r="AF30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5879,25 +5946,25 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT30" t="n">
         <v>17</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>16</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX30" t="n">
         <v>15</v>
@@ -5909,7 +5976,7 @@
         <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" t="n">
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5986,7 +6053,7 @@
         <v>0.766</v>
       </c>
       <c r="R31" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S31" t="n">
         <v>28.1</v>
@@ -5995,19 +6062,19 @@
         <v>39.9</v>
       </c>
       <c r="U31" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
       </c>
       <c r="W31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X31" t="n">
         <v>4.2</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z31" t="n">
         <v>20.6</v>
@@ -6019,22 +6086,22 @@
         <v>95.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
         <v>20</v>
@@ -6082,16 +6149,16 @@
         <v>8</v>
       </c>
       <c r="AX31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-28-2008-09</t>
+          <t>2009-03-28</t>
         </is>
       </c>
     </row>
